--- a/out/img/core/BR_40_training_testing_data.xlsx
+++ b/out/img/core/BR_40_training_testing_data.xlsx
@@ -466,10 +466,10 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>5276</v>
+        <v>203</v>
       </c>
       <c r="D2" t="n">
-        <v>13231</v>
+        <v>370468</v>
       </c>
     </row>
     <row r="3">
@@ -482,10 +482,10 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>4004</v>
+        <v>153</v>
       </c>
       <c r="D3" t="n">
-        <v>10553</v>
+        <v>295484</v>
       </c>
     </row>
     <row r="4">
@@ -498,10 +498,10 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>4108</v>
+        <v>157</v>
       </c>
       <c r="D4" t="n">
-        <v>11457</v>
+        <v>320796</v>
       </c>
     </row>
     <row r="5">
@@ -514,10 +514,10 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>580</v>
+        <v>29</v>
       </c>
       <c r="D5" t="n">
-        <v>13313</v>
+        <v>266260</v>
       </c>
     </row>
     <row r="6">
@@ -530,10 +530,10 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>440</v>
+        <v>22</v>
       </c>
       <c r="D6" t="n">
-        <v>10747</v>
+        <v>214940</v>
       </c>
     </row>
     <row r="7">
@@ -546,10 +546,10 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>500</v>
+        <v>25</v>
       </c>
       <c r="D7" t="n">
-        <v>13285</v>
+        <v>265700</v>
       </c>
     </row>
     <row r="8">
@@ -562,10 +562,10 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>360</v>
+        <v>18</v>
       </c>
       <c r="D8" t="n">
-        <v>15308</v>
+        <v>306160</v>
       </c>
     </row>
     <row r="9">
@@ -578,10 +578,10 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>540</v>
+        <v>27</v>
       </c>
       <c r="D9" t="n">
-        <v>13782</v>
+        <v>275640</v>
       </c>
     </row>
     <row r="10">
@@ -594,10 +594,10 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>540</v>
+        <v>27</v>
       </c>
       <c r="D10" t="n">
-        <v>13726</v>
+        <v>274520</v>
       </c>
     </row>
     <row r="11">
@@ -610,10 +610,10 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>660</v>
+        <v>33</v>
       </c>
       <c r="D11" t="n">
-        <v>13985</v>
+        <v>279700</v>
       </c>
     </row>
     <row r="12">
@@ -626,10 +626,10 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>480</v>
+        <v>24</v>
       </c>
       <c r="D12" t="n">
-        <v>13381</v>
+        <v>267620</v>
       </c>
     </row>
     <row r="13">
@@ -642,10 +642,10 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>780</v>
+        <v>39</v>
       </c>
       <c r="D13" t="n">
-        <v>15715</v>
+        <v>314300</v>
       </c>
     </row>
     <row r="14">
@@ -658,10 +658,10 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>520</v>
+        <v>26</v>
       </c>
       <c r="D14" t="n">
-        <v>15844</v>
+        <v>316880</v>
       </c>
     </row>
     <row r="15">
@@ -674,10 +674,10 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>540</v>
+        <v>27</v>
       </c>
       <c r="D15" t="n">
-        <v>12632</v>
+        <v>252640</v>
       </c>
     </row>
     <row r="16">
@@ -690,10 +690,10 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>660</v>
+        <v>33</v>
       </c>
       <c r="D16" t="n">
-        <v>14073</v>
+        <v>281460</v>
       </c>
     </row>
     <row r="17">
@@ -706,10 +706,10 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>440</v>
+        <v>22</v>
       </c>
       <c r="D17" t="n">
-        <v>13740</v>
+        <v>274800</v>
       </c>
     </row>
     <row r="18">
@@ -722,10 +722,10 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>520</v>
+        <v>26</v>
       </c>
       <c r="D18" t="n">
-        <v>13834</v>
+        <v>276680</v>
       </c>
     </row>
     <row r="19">
@@ -738,10 +738,10 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>440</v>
+        <v>22</v>
       </c>
       <c r="D19" t="n">
-        <v>14088</v>
+        <v>281760</v>
       </c>
     </row>
     <row r="20">
@@ -754,10 +754,10 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>520</v>
+        <v>26</v>
       </c>
       <c r="D20" t="n">
-        <v>16153</v>
+        <v>323060</v>
       </c>
     </row>
     <row r="21">
@@ -770,10 +770,10 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>520</v>
+        <v>26</v>
       </c>
       <c r="D21" t="n">
-        <v>14719</v>
+        <v>294380</v>
       </c>
     </row>
     <row r="22">
@@ -786,10 +786,10 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>760</v>
+        <v>38</v>
       </c>
       <c r="D22" t="n">
-        <v>14254</v>
+        <v>285080</v>
       </c>
     </row>
     <row r="23">
@@ -802,10 +802,10 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>780</v>
+        <v>39</v>
       </c>
       <c r="D23" t="n">
-        <v>14957</v>
+        <v>299140</v>
       </c>
     </row>
     <row r="24">
@@ -818,10 +818,10 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>740</v>
+        <v>37</v>
       </c>
       <c r="D24" t="n">
-        <v>14345</v>
+        <v>286900</v>
       </c>
     </row>
     <row r="25">
@@ -834,10 +834,10 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>720</v>
+        <v>36</v>
       </c>
       <c r="D25" t="n">
-        <v>16518</v>
+        <v>330360</v>
       </c>
     </row>
     <row r="26">
@@ -850,10 +850,10 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>800</v>
+        <v>40</v>
       </c>
       <c r="D26" t="n">
-        <v>16034</v>
+        <v>320680</v>
       </c>
     </row>
     <row r="27">
@@ -866,10 +866,10 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>520</v>
+        <v>26</v>
       </c>
       <c r="D27" t="n">
-        <v>13467</v>
+        <v>269340</v>
       </c>
     </row>
     <row r="28">
@@ -882,10 +882,10 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>520</v>
+        <v>26</v>
       </c>
       <c r="D28" t="n">
-        <v>12435</v>
+        <v>248700</v>
       </c>
     </row>
     <row r="29">
@@ -898,10 +898,10 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>2184</v>
+        <v>82</v>
       </c>
       <c r="D29" t="n">
-        <v>8022</v>
+        <v>224616</v>
       </c>
     </row>
     <row r="30">
@@ -914,10 +914,10 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>500</v>
+        <v>25</v>
       </c>
       <c r="D30" t="n">
-        <v>11139</v>
+        <v>222780</v>
       </c>
     </row>
     <row r="31">
@@ -930,10 +930,10 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>480</v>
+        <v>24</v>
       </c>
       <c r="D31" t="n">
-        <v>11888</v>
+        <v>237760</v>
       </c>
     </row>
     <row r="32">
@@ -946,10 +946,10 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>500</v>
+        <v>25</v>
       </c>
       <c r="D32" t="n">
-        <v>13413</v>
+        <v>268260</v>
       </c>
     </row>
     <row r="33">
@@ -962,10 +962,10 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>620</v>
+        <v>31</v>
       </c>
       <c r="D33" t="n">
-        <v>14170</v>
+        <v>283400</v>
       </c>
     </row>
     <row r="34">
@@ -978,10 +978,10 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>520</v>
+        <v>26</v>
       </c>
       <c r="D34" t="n">
-        <v>14730</v>
+        <v>294600</v>
       </c>
     </row>
     <row r="35">
@@ -994,10 +994,10 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>920</v>
+        <v>46</v>
       </c>
       <c r="D35" t="n">
-        <v>15851</v>
+        <v>317020</v>
       </c>
     </row>
     <row r="36">
@@ -1010,10 +1010,10 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>580</v>
+        <v>29</v>
       </c>
       <c r="D36" t="n">
-        <v>14125</v>
+        <v>282500</v>
       </c>
     </row>
     <row r="37">
@@ -1026,10 +1026,10 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>760</v>
+        <v>38</v>
       </c>
       <c r="D37" t="n">
-        <v>16485</v>
+        <v>329700</v>
       </c>
     </row>
     <row r="38">
@@ -1042,10 +1042,10 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>560</v>
+        <v>28</v>
       </c>
       <c r="D38" t="n">
-        <v>14941</v>
+        <v>298820</v>
       </c>
     </row>
     <row r="39">
@@ -1058,10 +1058,10 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>640</v>
+        <v>32</v>
       </c>
       <c r="D39" t="n">
-        <v>1339</v>
+        <v>26780</v>
       </c>
     </row>
     <row r="40">
@@ -1074,10 +1074,10 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>3218</v>
+        <v>130</v>
       </c>
       <c r="D40" t="n">
-        <v>1592</v>
+        <v>41392</v>
       </c>
     </row>
     <row r="41">
@@ -1090,10 +1090,10 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>680</v>
+        <v>34</v>
       </c>
       <c r="D41" t="n">
-        <v>1246</v>
+        <v>24920</v>
       </c>
     </row>
     <row r="42">
@@ -1106,10 +1106,10 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>660</v>
+        <v>33</v>
       </c>
       <c r="D42" t="n">
-        <v>1329</v>
+        <v>26580</v>
       </c>
     </row>
     <row r="43">
@@ -1122,10 +1122,10 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>380</v>
+        <v>19</v>
       </c>
       <c r="D43" t="n">
-        <v>1239</v>
+        <v>24780</v>
       </c>
     </row>
     <row r="44">
@@ -1138,10 +1138,10 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>560</v>
+        <v>28</v>
       </c>
       <c r="D44" t="n">
-        <v>1372</v>
+        <v>27440</v>
       </c>
     </row>
     <row r="45">
@@ -1154,10 +1154,10 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>860</v>
+        <v>43</v>
       </c>
       <c r="D45" t="n">
-        <v>1404</v>
+        <v>28080</v>
       </c>
     </row>
     <row r="46">
@@ -1170,10 +1170,10 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>660</v>
+        <v>33</v>
       </c>
       <c r="D46" t="n">
-        <v>1414</v>
+        <v>28280</v>
       </c>
     </row>
     <row r="47">
@@ -1186,10 +1186,10 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>1120</v>
+        <v>56</v>
       </c>
       <c r="D47" t="n">
-        <v>1412</v>
+        <v>28240</v>
       </c>
     </row>
     <row r="48">
@@ -1202,10 +1202,10 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>620</v>
+        <v>31</v>
       </c>
       <c r="D48" t="n">
-        <v>1374</v>
+        <v>27480</v>
       </c>
     </row>
     <row r="49">
@@ -1218,10 +1218,10 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>560</v>
+        <v>28</v>
       </c>
       <c r="D49" t="n">
-        <v>1557</v>
+        <v>31140</v>
       </c>
     </row>
     <row r="50">
@@ -1234,10 +1234,10 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>540</v>
+        <v>27</v>
       </c>
       <c r="D50" t="n">
-        <v>705</v>
+        <v>14100</v>
       </c>
     </row>
     <row r="51">
@@ -1250,10 +1250,10 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>480</v>
+        <v>24</v>
       </c>
       <c r="D51" t="n">
-        <v>703</v>
+        <v>14060</v>
       </c>
     </row>
     <row r="52">
@@ -1266,10 +1266,10 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>620</v>
+        <v>31</v>
       </c>
       <c r="D52" t="n">
-        <v>442</v>
+        <v>8840</v>
       </c>
     </row>
     <row r="53">
@@ -1282,10 +1282,10 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>460</v>
+        <v>23</v>
       </c>
       <c r="D53" t="n">
-        <v>751</v>
+        <v>15020</v>
       </c>
     </row>
     <row r="54">
@@ -1298,10 +1298,10 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>540</v>
+        <v>27</v>
       </c>
       <c r="D54" t="n">
-        <v>713</v>
+        <v>14260</v>
       </c>
     </row>
     <row r="55">
@@ -1314,10 +1314,10 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>520</v>
+        <v>26</v>
       </c>
       <c r="D55" t="n">
-        <v>719</v>
+        <v>14380</v>
       </c>
     </row>
     <row r="56">
@@ -1330,10 +1330,10 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>660</v>
+        <v>33</v>
       </c>
       <c r="D56" t="n">
-        <v>792</v>
+        <v>15840</v>
       </c>
     </row>
     <row r="57">
@@ -1346,10 +1346,10 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>280</v>
+        <v>14</v>
       </c>
       <c r="D57" t="n">
-        <v>746</v>
+        <v>14920</v>
       </c>
     </row>
     <row r="58">
@@ -1362,10 +1362,10 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>600</v>
+        <v>30</v>
       </c>
       <c r="D58" t="n">
-        <v>758</v>
+        <v>15160</v>
       </c>
     </row>
     <row r="59">
@@ -1378,10 +1378,10 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>580</v>
+        <v>29</v>
       </c>
       <c r="D59" t="n">
-        <v>754</v>
+        <v>15080</v>
       </c>
     </row>
     <row r="60">
@@ -1394,10 +1394,10 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>660</v>
+        <v>33</v>
       </c>
       <c r="D60" t="n">
-        <v>719</v>
+        <v>14380</v>
       </c>
     </row>
     <row r="61">
@@ -1410,10 +1410,10 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>720</v>
+        <v>36</v>
       </c>
       <c r="D61" t="n">
-        <v>796</v>
+        <v>15920</v>
       </c>
     </row>
   </sheetData>
@@ -1467,11 +1467,11 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>580</v>
+        <v>29</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>161127,00</t>
+          <t>161127,0010593,00538,007774,0060,006770,003384,007356,003626,002773,00178514,0011235,00650,009106,0070,007393,003549,005795,003943,001838,00</t>
         </is>
       </c>
     </row>
@@ -1485,11 +1485,11 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>480</v>
+        <v>24</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>126255,00</t>
+          <t>126255,009585,00464,006961,0074,006061,003015,006937,004047,002562,00128681,0010226,00554,008069,0084,007386,003207,004682,004220,001441,00</t>
         </is>
       </c>
     </row>
@@ -1503,11 +1503,11 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>620</v>
+        <v>31</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>127829,00</t>
+          <t>127829,0011477,00490,008237,0080,008008,003926,008547,005320,003277,00129739,0012235,00542,009453,0092,009249,003988,006065,005105,001957,00</t>
         </is>
       </c>
     </row>
@@ -1521,11 +1521,11 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>580</v>
+        <v>29</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>145386,00</t>
+          <t>145386,0010193,00506,007687,0086,007177,003409,007450,004699,002948,00145202,0010947,00566,008784,0087,007818,003630,005537,005182,001926,00</t>
         </is>
       </c>
     </row>
@@ -1539,11 +1539,11 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>560</v>
+        <v>28</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>119874,00</t>
+          <t>119874,0010724,00455,008019,0099,007885,003885,008538,004672,003161,00123741,0011812,00516,009435,00109,008632,004112,005880,004847,001992,00</t>
         </is>
       </c>
     </row>
@@ -1557,11 +1557,11 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>500</v>
+        <v>25</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>123196,00</t>
+          <t>123196,0010231,00479,007844,00117,007771,003632,007854,005568,002900,00125180,0011482,00537,008898,00112,008288,004041,006277,005675,002035,00</t>
         </is>
       </c>
     </row>
@@ -1575,11 +1575,11 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>600</v>
+        <v>30</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>147820,00</t>
+          <t>147820,0010760,00544,008360,00107,007454,003805,007989,004889,003341,00147591,0011993,00553,009477,0098,007878,003982,006516,005064,002229,00</t>
         </is>
       </c>
     </row>
@@ -1593,11 +1593,11 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>520</v>
+        <v>26</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>125009,00</t>
+          <t>125009,0011044,00490,008573,0093,008414,003812,008018,004410,003528,00125664,0012504,00549,009555,0089,008169,004421,006581,004481,002192,00</t>
         </is>
       </c>
     </row>
@@ -1611,11 +1611,11 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>540</v>
+        <v>27</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>134654,00</t>
+          <t>134654,0010362,00579,008287,00154,007513,003571,007141,005388,003307,00135595,0011474,00577,009215,00143,007858,003897,005815,005495,002109,00</t>
         </is>
       </c>
     </row>
@@ -1629,11 +1629,11 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>800</v>
+        <v>40</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>142932,00</t>
+          <t>142932,0011110,00513,009139,00115,008447,003885,007829,004339,003675,00143568,0012050,00568,0010243,00121,008388,004119,006283,004449,002224,00</t>
         </is>
       </c>
     </row>
@@ -1647,11 +1647,11 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>640</v>
+        <v>32</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>132580,00</t>
+          <t>132580,0010941,00494,008927,00109,008463,003849,007636,004535,003417,00134167,0011907,00557,0010206,00123,008079,004353,006576,004680,002209,00</t>
         </is>
       </c>
     </row>
@@ -1665,11 +1665,11 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>460</v>
+        <v>23</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>176143,00</t>
+          <t>176143,0011254,00678,009027,00104,007472,003743,007039,005443,003265,00152053,0012099,00613,009874,0097,008015,004019,005895,005079,001906,00</t>
         </is>
       </c>
     </row>

--- a/out/img/core/BR_40_training_testing_data.xlsx
+++ b/out/img/core/BR_40_training_testing_data.xlsx
@@ -469,7 +469,7 @@
         <v>203</v>
       </c>
       <c r="D2" t="n">
-        <v>370468</v>
+        <v>16202</v>
       </c>
     </row>
     <row r="3">
@@ -485,7 +485,7 @@
         <v>153</v>
       </c>
       <c r="D3" t="n">
-        <v>295484</v>
+        <v>11801</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         <v>157</v>
       </c>
       <c r="D4" t="n">
-        <v>320796</v>
+        <v>11055</v>
       </c>
     </row>
     <row r="5">
@@ -517,7 +517,7 @@
         <v>29</v>
       </c>
       <c r="D5" t="n">
-        <v>266260</v>
+        <v>39399</v>
       </c>
     </row>
     <row r="6">
@@ -533,7 +533,7 @@
         <v>22</v>
       </c>
       <c r="D6" t="n">
-        <v>214940</v>
+        <v>32392</v>
       </c>
     </row>
     <row r="7">
@@ -549,7 +549,7 @@
         <v>25</v>
       </c>
       <c r="D7" t="n">
-        <v>265700</v>
+        <v>33049</v>
       </c>
     </row>
     <row r="8">
@@ -565,7 +565,7 @@
         <v>18</v>
       </c>
       <c r="D8" t="n">
-        <v>306160</v>
+        <v>42524</v>
       </c>
     </row>
     <row r="9">
@@ -581,7 +581,7 @@
         <v>27</v>
       </c>
       <c r="D9" t="n">
-        <v>275640</v>
+        <v>36827</v>
       </c>
     </row>
     <row r="10">
@@ -597,7 +597,7 @@
         <v>27</v>
       </c>
       <c r="D10" t="n">
-        <v>274520</v>
+        <v>40086</v>
       </c>
     </row>
     <row r="11">
@@ -613,7 +613,7 @@
         <v>33</v>
       </c>
       <c r="D11" t="n">
-        <v>279700</v>
+        <v>41062</v>
       </c>
     </row>
     <row r="12">
@@ -629,7 +629,7 @@
         <v>24</v>
       </c>
       <c r="D12" t="n">
-        <v>267620</v>
+        <v>40610</v>
       </c>
     </row>
     <row r="13">
@@ -645,7 +645,7 @@
         <v>39</v>
       </c>
       <c r="D13" t="n">
-        <v>314300</v>
+        <v>50361</v>
       </c>
     </row>
     <row r="14">
@@ -661,7 +661,7 @@
         <v>26</v>
       </c>
       <c r="D14" t="n">
-        <v>316880</v>
+        <v>54110</v>
       </c>
     </row>
     <row r="15">
@@ -677,7 +677,7 @@
         <v>27</v>
       </c>
       <c r="D15" t="n">
-        <v>252640</v>
+        <v>34279</v>
       </c>
     </row>
     <row r="16">
@@ -693,7 +693,7 @@
         <v>33</v>
       </c>
       <c r="D16" t="n">
-        <v>281460</v>
+        <v>42675</v>
       </c>
     </row>
     <row r="17">
@@ -709,7 +709,7 @@
         <v>22</v>
       </c>
       <c r="D17" t="n">
-        <v>274800</v>
+        <v>40263</v>
       </c>
     </row>
     <row r="18">
@@ -725,7 +725,7 @@
         <v>26</v>
       </c>
       <c r="D18" t="n">
-        <v>276680</v>
+        <v>36358</v>
       </c>
     </row>
     <row r="19">
@@ -741,7 +741,7 @@
         <v>22</v>
       </c>
       <c r="D19" t="n">
-        <v>281760</v>
+        <v>38424</v>
       </c>
     </row>
     <row r="20">
@@ -757,7 +757,7 @@
         <v>26</v>
       </c>
       <c r="D20" t="n">
-        <v>323060</v>
+        <v>44354</v>
       </c>
     </row>
     <row r="21">
@@ -773,7 +773,7 @@
         <v>26</v>
       </c>
       <c r="D21" t="n">
-        <v>294380</v>
+        <v>38732</v>
       </c>
     </row>
     <row r="22">
@@ -789,7 +789,7 @@
         <v>38</v>
       </c>
       <c r="D22" t="n">
-        <v>285080</v>
+        <v>39234</v>
       </c>
     </row>
     <row r="23">
@@ -805,7 +805,7 @@
         <v>39</v>
       </c>
       <c r="D23" t="n">
-        <v>299140</v>
+        <v>42488</v>
       </c>
     </row>
     <row r="24">
@@ -821,7 +821,7 @@
         <v>37</v>
       </c>
       <c r="D24" t="n">
-        <v>286900</v>
+        <v>41926</v>
       </c>
     </row>
     <row r="25">
@@ -837,7 +837,7 @@
         <v>36</v>
       </c>
       <c r="D25" t="n">
-        <v>330360</v>
+        <v>50080</v>
       </c>
     </row>
     <row r="26">
@@ -853,7 +853,7 @@
         <v>40</v>
       </c>
       <c r="D26" t="n">
-        <v>320680</v>
+        <v>52926</v>
       </c>
     </row>
     <row r="27">
@@ -869,7 +869,7 @@
         <v>26</v>
       </c>
       <c r="D27" t="n">
-        <v>269340</v>
+        <v>40132</v>
       </c>
     </row>
     <row r="28">
@@ -885,7 +885,7 @@
         <v>26</v>
       </c>
       <c r="D28" t="n">
-        <v>248700</v>
+        <v>28390</v>
       </c>
     </row>
     <row r="29">
@@ -901,7 +901,7 @@
         <v>82</v>
       </c>
       <c r="D29" t="n">
-        <v>224616</v>
+        <v>7710</v>
       </c>
     </row>
     <row r="30">
@@ -917,7 +917,7 @@
         <v>25</v>
       </c>
       <c r="D30" t="n">
-        <v>222780</v>
+        <v>19584</v>
       </c>
     </row>
     <row r="31">
@@ -933,7 +933,7 @@
         <v>24</v>
       </c>
       <c r="D31" t="n">
-        <v>237760</v>
+        <v>24174</v>
       </c>
     </row>
     <row r="32">
@@ -949,7 +949,7 @@
         <v>25</v>
       </c>
       <c r="D32" t="n">
-        <v>268260</v>
+        <v>29230</v>
       </c>
     </row>
     <row r="33">
@@ -965,7 +965,7 @@
         <v>31</v>
       </c>
       <c r="D33" t="n">
-        <v>283400</v>
+        <v>32758</v>
       </c>
     </row>
     <row r="34">
@@ -981,7 +981,7 @@
         <v>26</v>
       </c>
       <c r="D34" t="n">
-        <v>294600</v>
+        <v>37779</v>
       </c>
     </row>
     <row r="35">
@@ -997,7 +997,7 @@
         <v>46</v>
       </c>
       <c r="D35" t="n">
-        <v>317020</v>
+        <v>44243</v>
       </c>
     </row>
     <row r="36">
@@ -1013,7 +1013,7 @@
         <v>29</v>
       </c>
       <c r="D36" t="n">
-        <v>282500</v>
+        <v>37700</v>
       </c>
     </row>
     <row r="37">
@@ -1029,7 +1029,7 @@
         <v>38</v>
       </c>
       <c r="D37" t="n">
-        <v>329700</v>
+        <v>42238</v>
       </c>
     </row>
     <row r="38">
@@ -1045,7 +1045,7 @@
         <v>28</v>
       </c>
       <c r="D38" t="n">
-        <v>298820</v>
+        <v>42036</v>
       </c>
     </row>
     <row r="39">
@@ -1061,7 +1061,7 @@
         <v>32</v>
       </c>
       <c r="D39" t="n">
-        <v>26780</v>
+        <v>34395</v>
       </c>
     </row>
     <row r="40">
@@ -1077,7 +1077,7 @@
         <v>130</v>
       </c>
       <c r="D40" t="n">
-        <v>41392</v>
+        <v>8996</v>
       </c>
     </row>
     <row r="41">
@@ -1093,7 +1093,7 @@
         <v>34</v>
       </c>
       <c r="D41" t="n">
-        <v>24920</v>
+        <v>28242</v>
       </c>
     </row>
     <row r="42">
@@ -1109,7 +1109,7 @@
         <v>33</v>
       </c>
       <c r="D42" t="n">
-        <v>26580</v>
+        <v>34245</v>
       </c>
     </row>
     <row r="43">
@@ -1125,7 +1125,7 @@
         <v>19</v>
       </c>
       <c r="D43" t="n">
-        <v>24780</v>
+        <v>35938</v>
       </c>
     </row>
     <row r="44">
@@ -1141,7 +1141,7 @@
         <v>28</v>
       </c>
       <c r="D44" t="n">
-        <v>27440</v>
+        <v>42164</v>
       </c>
     </row>
     <row r="45">
@@ -1157,7 +1157,7 @@
         <v>43</v>
       </c>
       <c r="D45" t="n">
-        <v>28080</v>
+        <v>37944</v>
       </c>
     </row>
     <row r="46">
@@ -1173,7 +1173,7 @@
         <v>33</v>
       </c>
       <c r="D46" t="n">
-        <v>28280</v>
+        <v>40373</v>
       </c>
     </row>
     <row r="47">
@@ -1189,7 +1189,7 @@
         <v>56</v>
       </c>
       <c r="D47" t="n">
-        <v>28240</v>
+        <v>43586</v>
       </c>
     </row>
     <row r="48">
@@ -1205,7 +1205,7 @@
         <v>31</v>
       </c>
       <c r="D48" t="n">
-        <v>27480</v>
+        <v>39308</v>
       </c>
     </row>
     <row r="49">
@@ -1221,7 +1221,7 @@
         <v>28</v>
       </c>
       <c r="D49" t="n">
-        <v>31140</v>
+        <v>48682</v>
       </c>
     </row>
     <row r="50">
@@ -1237,7 +1237,7 @@
         <v>27</v>
       </c>
       <c r="D50" t="n">
-        <v>14100</v>
+        <v>46705</v>
       </c>
     </row>
     <row r="51">
@@ -1253,7 +1253,7 @@
         <v>24</v>
       </c>
       <c r="D51" t="n">
-        <v>14060</v>
+        <v>34679</v>
       </c>
     </row>
     <row r="52">
@@ -1269,7 +1269,7 @@
         <v>31</v>
       </c>
       <c r="D52" t="n">
-        <v>8840</v>
+        <v>41350</v>
       </c>
     </row>
     <row r="53">
@@ -1285,7 +1285,7 @@
         <v>23</v>
       </c>
       <c r="D53" t="n">
-        <v>15020</v>
+        <v>44583</v>
       </c>
     </row>
     <row r="54">
@@ -1301,7 +1301,7 @@
         <v>27</v>
       </c>
       <c r="D54" t="n">
-        <v>14260</v>
+        <v>37851</v>
       </c>
     </row>
     <row r="55">
@@ -1317,7 +1317,7 @@
         <v>26</v>
       </c>
       <c r="D55" t="n">
-        <v>14380</v>
+        <v>37327</v>
       </c>
     </row>
     <row r="56">
@@ -1333,7 +1333,7 @@
         <v>33</v>
       </c>
       <c r="D56" t="n">
-        <v>15840</v>
+        <v>45732</v>
       </c>
     </row>
     <row r="57">
@@ -1349,7 +1349,7 @@
         <v>14</v>
       </c>
       <c r="D57" t="n">
-        <v>14920</v>
+        <v>39369</v>
       </c>
     </row>
     <row r="58">
@@ -1365,7 +1365,7 @@
         <v>30</v>
       </c>
       <c r="D58" t="n">
-        <v>15160</v>
+        <v>41948</v>
       </c>
     </row>
     <row r="59">
@@ -1381,7 +1381,7 @@
         <v>29</v>
       </c>
       <c r="D59" t="n">
-        <v>15080</v>
+        <v>44723</v>
       </c>
     </row>
     <row r="60">
@@ -1397,7 +1397,7 @@
         <v>33</v>
       </c>
       <c r="D60" t="n">
-        <v>14380</v>
+        <v>39863</v>
       </c>
     </row>
     <row r="61">
@@ -1413,7 +1413,7 @@
         <v>36</v>
       </c>
       <c r="D61" t="n">
-        <v>15920</v>
+        <v>50245</v>
       </c>
     </row>
   </sheetData>
@@ -1469,11 +1469,7 @@
       <c r="C2" t="n">
         <v>29</v>
       </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>161127,0010593,00538,007774,0060,006770,003384,007356,003626,002773,00178514,0011235,00650,009106,0070,007393,003549,005795,003943,001838,00</t>
-        </is>
-      </c>
+      <c r="D2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -1487,11 +1483,7 @@
       <c r="C3" t="n">
         <v>24</v>
       </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>126255,009585,00464,006961,0074,006061,003015,006937,004047,002562,00128681,0010226,00554,008069,0084,007386,003207,004682,004220,001441,00</t>
-        </is>
-      </c>
+      <c r="D3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -1505,11 +1497,7 @@
       <c r="C4" t="n">
         <v>31</v>
       </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>127829,0011477,00490,008237,0080,008008,003926,008547,005320,003277,00129739,0012235,00542,009453,0092,009249,003988,006065,005105,001957,00</t>
-        </is>
-      </c>
+      <c r="D4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -1523,11 +1511,7 @@
       <c r="C5" t="n">
         <v>29</v>
       </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>145386,0010193,00506,007687,0086,007177,003409,007450,004699,002948,00145202,0010947,00566,008784,0087,007818,003630,005537,005182,001926,00</t>
-        </is>
-      </c>
+      <c r="D5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -1541,11 +1525,7 @@
       <c r="C6" t="n">
         <v>28</v>
       </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>119874,0010724,00455,008019,0099,007885,003885,008538,004672,003161,00123741,0011812,00516,009435,00109,008632,004112,005880,004847,001992,00</t>
-        </is>
-      </c>
+      <c r="D6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -1559,11 +1539,7 @@
       <c r="C7" t="n">
         <v>25</v>
       </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>123196,0010231,00479,007844,00117,007771,003632,007854,005568,002900,00125180,0011482,00537,008898,00112,008288,004041,006277,005675,002035,00</t>
-        </is>
-      </c>
+      <c r="D7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -1577,11 +1553,7 @@
       <c r="C8" t="n">
         <v>30</v>
       </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>147820,0010760,00544,008360,00107,007454,003805,007989,004889,003341,00147591,0011993,00553,009477,0098,007878,003982,006516,005064,002229,00</t>
-        </is>
-      </c>
+      <c r="D8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -1595,11 +1567,7 @@
       <c r="C9" t="n">
         <v>26</v>
       </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>125009,0011044,00490,008573,0093,008414,003812,008018,004410,003528,00125664,0012504,00549,009555,0089,008169,004421,006581,004481,002192,00</t>
-        </is>
-      </c>
+      <c r="D9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="n">
@@ -1613,11 +1581,7 @@
       <c r="C10" t="n">
         <v>27</v>
       </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>134654,0010362,00579,008287,00154,007513,003571,007141,005388,003307,00135595,0011474,00577,009215,00143,007858,003897,005815,005495,002109,00</t>
-        </is>
-      </c>
+      <c r="D10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="n">
@@ -1631,11 +1595,7 @@
       <c r="C11" t="n">
         <v>40</v>
       </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>142932,0011110,00513,009139,00115,008447,003885,007829,004339,003675,00143568,0012050,00568,0010243,00121,008388,004119,006283,004449,002224,00</t>
-        </is>
-      </c>
+      <c r="D11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="n">
@@ -1649,11 +1609,7 @@
       <c r="C12" t="n">
         <v>32</v>
       </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>132580,0010941,00494,008927,00109,008463,003849,007636,004535,003417,00134167,0011907,00557,0010206,00123,008079,004353,006576,004680,002209,00</t>
-        </is>
-      </c>
+      <c r="D12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="n">
@@ -1667,11 +1623,7 @@
       <c r="C13" t="n">
         <v>23</v>
       </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>176143,0011254,00678,009027,00104,007472,003743,007039,005443,003265,00152053,0012099,00613,009874,0097,008015,004019,005895,005079,001906,00</t>
-        </is>
-      </c>
+      <c r="D13" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
